--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H19"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,7 +264,8 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -290,7 +291,8 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -316,7 +318,8 @@
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="b">
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -342,7 +345,8 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="b">
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -368,7 +372,8 @@
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="b">
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -394,7 +399,8 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="b">
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -420,7 +426,8 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="b">
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -446,7 +453,8 @@
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="b">
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -472,7 +480,8 @@
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="b">
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -498,7 +507,8 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="b">
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -524,7 +534,8 @@
       <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="b">
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -550,7 +561,8 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="b">
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -576,7 +588,8 @@
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="b">
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -602,7 +615,8 @@
       <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="b">
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -628,7 +642,8 @@
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="b">
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -654,7 +669,8 @@
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="b">
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -680,7 +696,8 @@
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="b">
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -706,7 +723,8 @@
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="b">
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -264,8 +264,7 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -291,8 +290,7 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -318,8 +316,7 @@
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -345,8 +342,7 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -372,8 +368,7 @@
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -399,8 +394,7 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -426,8 +420,7 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -453,8 +446,7 @@
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -480,8 +472,7 @@
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -507,8 +498,7 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -534,8 +524,7 @@
       <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -561,8 +550,7 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -588,8 +576,7 @@
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -615,8 +602,7 @@
       <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -642,8 +628,7 @@
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -669,8 +654,7 @@
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -696,8 +680,7 @@
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -723,8 +706,7 @@
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
